--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suresh\Documents\UiPath\Quora_AnswerBot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D05A8C4-79DF-430A-B001-BE0055FB9EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0480703A-C824-4EB8-BD12-961DD41450D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,13 +156,7 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>Google_extractedDataWithAnswers</t>
-  </si>
-  <si>
     <t>QuoraAnswers</t>
-  </si>
-  <si>
-    <t>Google_SearchData</t>
   </si>
   <si>
     <t>uipath</t>
@@ -178,6 +172,12 @@
 {0}
 You might like this book it's helped me lot.
 {1}</t>
+  </si>
+  <si>
+    <t>GoogleData_withGeminiAnswers</t>
+  </si>
+  <si>
+    <t>Quora_AnswerBot</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -615,7 +615,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -626,7 +626,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
@@ -638,7 +638,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -647,18 +647,18 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="99.5" customHeight="1">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suresh\Documents\UiPath\Quora_AnswerBot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0480703A-C824-4EB8-BD12-961DD41450D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8FD0D6-6C62-4C7F-BC8F-6ECB188B63A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>Quora_AnswerBot</t>
+  </si>
+  <si>
+    <t>products_link1</t>
+  </si>
+  <si>
+    <t>arr_link1</t>
   </si>
 </sst>
 </file>
@@ -564,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2828,7 +2834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2874,7 +2882,17 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
